--- a/biology/Zoologie/Cryptochiton_stelleri/Cryptochiton_stelleri.xlsx
+++ b/biology/Zoologie/Cryptochiton_stelleri/Cryptochiton_stelleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptochiton stelleri est le plus grand chiton, pouvant atteindre 36 cm de longueur pour un poids de 2 kg. Il est trouvé près des côtes du Pacifique nord, de la Californie vers le nord jusqu'à l'Alaska, des Iles Aléoutiennes à la Kamtchatka puis vers le sud jusqu'au Japon [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptochiton stelleri est le plus grand chiton, pouvant atteindre 36 cm de longueur pour un poids de 2 kg. Il est trouvé près des côtes du Pacifique nord, de la Californie vers le nord jusqu'à l'Alaska, des Iles Aléoutiennes à la Kamtchatka puis vers le sud jusqu'au Japon .
 </t>
         </is>
       </c>
